--- a/BackTest/2020-01-20 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-20 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1474,7 +1474,7 @@
         <v>782396.72835877</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>774877.1113587701</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>737655.5794188799</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>827128.03882859</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>841537.6354942899</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>848550.59859429</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>814394.60309429</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>833904.89890558</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>828153.13610558</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>838531.69150558</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>809293.54100558</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>809293.54100558</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>788707.41340558</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>728741.31500558</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>751965.04820558</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>748175.9013055799</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>730559.6086562099</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>778818.7342023699</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>760906.6781023699</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>776797.0595383699</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>777218.9225383699</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>783101.6984383699</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>784654.4723383699</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>784802.72833837</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>798408.9100207899</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>797999.73402079</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>796133.0296207899</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>788381.9858207899</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>788381.9858207899</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>779830.6363207899</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>780837.2513207899</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>780692.7287207899</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>792327.3528593399</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>805609.3393204999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>805216.4193204999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>805216.4193204999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>785521.0002204999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>792497.6525204999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>780598.0180204998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>727268.1757204998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>716688.1757204998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>716688.1757204998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>722340.0050204998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>722340.0050204998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>722340.0050204998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>720514.1809204998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>688692.4454204999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>688683.7846204999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>706485.5259204999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>705883.2160605999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>705883.2160605999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>702429.0673606</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>697853.5801606</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>688240.2478244598</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>687615.2478244598</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>695796.70283447</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>784735.1872583299</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>758491.0391583299</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>795289.5196583299</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>839649.6576583299</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>880055.9292150099</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>867643.2504150099</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>851280.6684150099</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>822231.1894150098</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>821752.2878150098</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>821752.2878150098</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>816795.5217150098</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>816795.5217150098</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>810598.3336779898</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>797602.6516779898</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>798278.2151779898</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>770414.5614779898</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>714243.4822779897</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>738623.5307779898</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>739749.5307779898</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>739668.5307779898</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>738647.1624779898</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>742092.5953779898</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>742366.3136779898</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>755975.3615779898</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>749110.0837779897</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>751649.1203779897</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>755959.2117779898</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>773310.7425779897</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>773688.0488779898</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>798545.1837779897</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>796366.5279779898</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>795985.8279779898</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>789787.20157799</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>789787.20157799</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>784533.64540353</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>784533.64540353</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>786678.7598035299</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>786006.8043035299</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>763291.0021035299</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>765230.0821035298</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>765230.0821035298</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>766878.2738035298</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>776679.5438035298</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>784573.4049035298</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>794854.6172035298</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>787978.4172035299</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>785163.8387035299</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>785163.8387035299</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>785163.8387035299</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>784824.2387035299</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>782127.7342035299</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>718213.8744489099</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>718678.5080489098</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>716276.8418489099</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>716276.8418489099</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>716276.8418489099</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>723395.7705489099</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>715243.6057736599</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>719022.7884217999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>732611.7963217999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>731271.9589217999</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>743121.9489217999</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>743121.9489217999</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>742936.7489217999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>715651.1024217999</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>715651.1024217999</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>720413.1024217999</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>720413.1024217999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>717855.1399217999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>731524.3893217999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>710278.3403217999</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>713054.9793531299</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>711393.3793531299</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>712076.9393531299</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>718110.9393531299</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>715316.9661531299</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>684959.3130531299</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>684959.3130531299</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>688101.62415313</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>687932.13415313</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>678929.98255313</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>678929.98255313</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>642818.06265313</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>643443.1991531301</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>624099.73405313</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>624187.5828531301</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>617103.6642531301</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>589848.15715313</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>628725.6483531301</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>632992.7493531301</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>625860.0150531301</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>625860.0150531301</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>623665.8837531301</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>623665.8837531301</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>623665.8837531301</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>623665.8837531301</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>627307.7782531301</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>445319.3660889101</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>451244.8980889102</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>495275.0040041301</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>518371.7004503102</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>780259.1612961099</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -33517,11 +33517,17 @@
         <v>204959.0931321698</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>191.3</v>
+      </c>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33550,11 +33556,17 @@
         <v>197768.8890321698</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>195.7</v>
+      </c>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33587,7 +33599,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33620,7 +33636,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33649,11 +33669,17 @@
         <v>181903.9900321698</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>195</v>
+      </c>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33682,11 +33708,17 @@
         <v>178064.5169321698</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>194.9</v>
+      </c>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33715,11 +33747,17 @@
         <v>183840.5246321698</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>194.7</v>
+      </c>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33752,7 +33790,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -33785,7 +33827,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -33818,7 +33864,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33851,7 +33901,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -33884,7 +33938,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -33917,7 +33975,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -33950,7 +34012,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -33983,7 +34049,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34016,7 +34086,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34049,7 +34123,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34082,7 +34160,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34115,7 +34197,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34148,7 +34234,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34181,7 +34271,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34214,7 +34308,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34247,7 +34345,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34280,7 +34382,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34313,7 +34419,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34346,7 +34456,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34379,7 +34493,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34412,7 +34530,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34445,7 +34567,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34478,7 +34604,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34511,7 +34641,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34544,7 +34678,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34577,7 +34715,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34610,7 +34752,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34643,7 +34789,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34676,7 +34826,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34709,7 +34863,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34742,7 +34900,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -34771,11 +34933,17 @@
         <v>131858.8070321698</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>191</v>
+      </c>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -34804,11 +34972,17 @@
         <v>138488.1114321698</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>189.4</v>
+      </c>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -34837,11 +35011,17 @@
         <v>135684.3822321698</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>191</v>
+      </c>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -34870,11 +35050,17 @@
         <v>138417.4191321698</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>188.2</v>
+      </c>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -34903,7 +35089,7 @@
         <v>131564.7472321698</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1046" t="n">
         <v>190.3</v>
@@ -34911,7 +35097,7 @@
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1046" t="n">
@@ -34942,7 +35128,7 @@
         <v>134478.5780321698</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1047" t="n">
         <v>188.1</v>
@@ -34981,7 +35167,7 @@
         <v>133008.8178321698</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1048" t="n">
         <v>190</v>
@@ -35020,7 +35206,7 @@
         <v>137234.7266321698</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1049" t="n">
         <v>188.6</v>
@@ -35059,7 +35245,7 @@
         <v>145660.6258321698</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1050" t="n">
         <v>189</v>
@@ -35098,7 +35284,7 @@
         <v>138953.7580321698</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1051" t="n">
         <v>191.2</v>
@@ -35137,7 +35323,7 @@
         <v>160718.6452321698</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1052" t="n">
         <v>190.3</v>
@@ -35176,7 +35362,7 @@
         <v>160444.8652321698</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1053" t="n">
         <v>193.4</v>
@@ -35215,7 +35401,7 @@
         <v>168432.1023321698</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1054" t="n">
         <v>190.2</v>
@@ -35254,7 +35440,7 @@
         <v>168455.6291321698</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1055" t="n">
         <v>190.3</v>
@@ -35293,7 +35479,7 @@
         <v>183188.0043321698</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1056" t="n">
         <v>192.9</v>
@@ -35332,7 +35518,7 @@
         <v>183188.0043321698</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1057" t="n">
         <v>194.3</v>
@@ -35371,7 +35557,7 @@
         <v>179140.5913321698</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1058" t="n">
         <v>194.3</v>
@@ -35410,7 +35596,7 @@
         <v>148022.5233321698</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1059" t="n">
         <v>194.1</v>
@@ -35449,7 +35635,7 @@
         <v>152981.0763321698</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1060" t="n">
         <v>191.3</v>
@@ -35488,7 +35674,7 @@
         <v>147868.3615321698</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1061" t="n">
         <v>197.8</v>
@@ -35527,7 +35713,7 @@
         <v>147993.3615321698</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1062" t="n">
         <v>192.1</v>
@@ -35566,9 +35752,11 @@
         <v>148193.3615321698</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>194</v>
+      </c>
       <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
@@ -35603,9 +35791,11 @@
         <v>145334.4924321698</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>196.3</v>
+      </c>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
@@ -35640,9 +35830,11 @@
         <v>139816.6507321698</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>196.1</v>
+      </c>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
@@ -35677,7 +35869,7 @@
         <v>140131.1748321698</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1066" t="n">
         <v>195</v>
@@ -35716,9 +35908,11 @@
         <v>140131.1748321698</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>195.1</v>
+      </c>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
@@ -35753,9 +35947,11 @@
         <v>140674.5973321698</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>195.1</v>
+      </c>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
@@ -35790,9 +35986,11 @@
         <v>133069.0330321698</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>196</v>
+      </c>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
@@ -35827,9 +36025,11 @@
         <v>133069.0330321698</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>195</v>
+      </c>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
@@ -35864,9 +36064,11 @@
         <v>130674.0421321698</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>195</v>
+      </c>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
@@ -36530,9 +36732,11 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>194.2</v>
+      </c>
       <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
@@ -36567,9 +36771,11 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>194.2</v>
+      </c>
       <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
@@ -36604,9 +36810,11 @@
         <v>149945.0986321698</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>194.2</v>
+      </c>
       <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
@@ -36641,9 +36849,11 @@
         <v>150203.6976321698</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>195.8</v>
+      </c>
       <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
@@ -36678,9 +36888,11 @@
         <v>148282.8621321698</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>195.9</v>
+      </c>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
@@ -36715,9 +36927,11 @@
         <v>147754.3478321698</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>194.2</v>
+      </c>
       <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
@@ -36752,9 +36966,11 @@
         <v>147754.3478321698</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>194</v>
+      </c>
       <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
@@ -36789,9 +37005,11 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>194</v>
+      </c>
       <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
@@ -36826,9 +37044,11 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>193</v>
+      </c>
       <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
@@ -36863,9 +37083,11 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>193</v>
+      </c>
       <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
@@ -36900,9 +37122,11 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>193</v>
+      </c>
       <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
@@ -36937,9 +37161,11 @@
         <v>136183.1803321698</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>193</v>
+      </c>
       <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
@@ -36974,9 +37200,11 @@
         <v>136183.1803321698</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>192</v>
+      </c>
       <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
@@ -36989,6 +37217,6 @@
       <c r="M1101" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-20 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>600352.1942065801</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>615163.47710658</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>641242.3873065801</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>411056.76517159</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>411056.76517159</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>782396.72835877</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>774877.1113587701</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>747020.62351888</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>737655.5794188799</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>827128.03882859</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>826189.4042942899</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>841537.6354942899</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>838531.69150558</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>809293.54100558</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>809293.54100558</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>788707.41340558</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>728741.31500558</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>751965.04820558</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>748175.9013055799</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>730559.6086562099</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>778818.7342023699</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>760906.6781023699</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>776797.0595383699</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>777218.9225383699</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>783101.6984383699</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>784654.4723383699</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>784802.72833837</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>798408.9100207899</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>797999.73402079</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>796133.0296207899</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>788381.9858207899</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>788381.9858207899</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>779830.6363207899</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>780837.2513207899</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>780692.7287207899</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>792327.3528593399</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>805609.3393204999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>805216.4193204999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>805216.4193204999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>785521.0002204999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>792497.6525204999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>780598.0180204998</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>727268.1757204998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>716688.1757204998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>716688.1757204998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>722340.0050204998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>722340.0050204998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>722340.0050204998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>720514.1809204998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>688692.4454204999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>688683.7846204999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>706485.5259204999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>705883.2160605999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>705883.2160605999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>702429.0673606</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>697853.5801606</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>688240.2478244598</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>687615.2478244598</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>757305.69243891</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>754802.5416389101</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>766811.9996389101</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>766678.92083891</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>779993.69093891</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>773466.89033891</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>776291.89033891</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>776291.89033891</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>777147.14343891</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>770076.14843891</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>756252.60863891</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>759265.43563891</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>758993.43563891</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>758993.43563891</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>758123.43563891</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>759193.75663891</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>758543.34593891</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>758216.28243891</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>758549.9454389099</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>744437.00893891</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>744440.00893891</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>742717.4452389099</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>742717.4452389099</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>739444.16703891</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>742953.4289389099</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>839649.6576583299</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>880055.9292150099</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>867643.2504150099</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>851280.6684150099</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>822231.1894150098</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>821752.2878150098</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>821752.2878150098</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>816795.5217150098</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>816795.5217150098</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>810598.3336779898</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>797602.6516779898</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>798278.2151779898</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>770414.5614779898</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>714243.4822779897</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>738647.1624779898</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>742092.5953779898</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>751649.1203779897</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>755959.2117779898</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>773310.7425779897</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>773688.0488779898</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>798545.1837779897</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>796366.5279779898</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>795985.8279779898</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>789787.20157799</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>789787.20157799</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>784533.64540353</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>784533.64540353</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>786678.7598035299</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>786006.8043035299</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>763291.0021035299</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>765230.0821035298</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>765230.0821035298</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>766878.2738035298</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>776679.5438035298</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>784573.4049035298</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>794854.6172035298</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>787978.4172035299</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>785163.8387035299</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>785163.8387035299</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>785163.8387035299</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>784824.2387035299</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>782127.7342035299</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>718213.8744489099</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>718678.5080489098</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>716276.8418489099</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>716276.8418489099</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>716276.8418489099</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>723395.7705489099</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>715243.6057736599</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>719022.7884217999</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>732611.7963217999</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>731271.9589217999</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>743121.9489217999</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>743121.9489217999</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>742936.7489217999</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>715651.1024217999</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>715651.1024217999</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>720413.1024217999</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>720413.1024217999</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>717855.1399217999</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>731524.3893217999</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>710278.3403217999</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>713054.9793531299</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>711393.3793531299</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>712076.9393531299</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>718110.9393531299</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>715316.9661531299</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>684959.3130531299</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>684959.3130531299</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>688101.62415313</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>687932.13415313</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>678929.98255313</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>678929.98255313</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>642818.06265313</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>643443.1991531301</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>624099.73405313</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>624187.5828531301</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>617103.6642531301</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>589848.15715313</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>628725.6483531301</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>632992.7493531301</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>625860.0150531301</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>625860.0150531301</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>623665.8837531301</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>623665.8837531301</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>623665.8837531301</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>623665.8837531301</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>627307.7782531301</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>488111.6731838202</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>471822.2918009402</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>393302.1192009402</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>406856.2045009402</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>324160.5571529102</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>404550.3165927401</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>355579.6032174102</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>360402.1618174101</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>332285.6105174102</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>288841.3678174102</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>309746.8551174101</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>350108.7333174101</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>381526.5779174101</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>405340.6788174101</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>478312.9887174101</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>478312.9887174101</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>473674.1860174101</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>473674.1860174101</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>451153.1863889101</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>452240.3186889101</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>444430.6274889101</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>435763.6347889101</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>438172.3470889101</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>445319.3660889101</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>443747.3660889101</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>451244.8980889102</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>441099.3663889102</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>444683.2097889102</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>438437.6312889102</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>477146.8360889102</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>502991.5683041302</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>495275.0040041301</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>486768.0279041302</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>518371.7004503102</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>502845.9960964902</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>517855.1328964902</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>517855.1328964902</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>517151.5593964902</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>517151.5593964902</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>489214.0221964901</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>442742.8724964901</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>451703.0065964902</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>450785.0282935802</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>448204.4707935802</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>443524.1230935802</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>435527.6826935802</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>435527.6826935802</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>434729.7847935802</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>638070.3587407799</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>611578.8087407799</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>589459.7957352399</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>652148.4795296999</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>652148.4795296999</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>761028.5216296999</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>780259.1612961099</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>772922.2084184799</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>784153.9537633399</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>784153.9537633399</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>715333.2839081999</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>637476.0963081999</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>597465.9201081999</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>564111.9933081999</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>594912.8100081999</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>555751.6809550299</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>555751.6809550299</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>536524.3615939299</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>556685.13549393</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>556685.13549393</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>556685.13549393</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>588139.2132939299</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>595687.6799939299</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>611359.7044939299</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>592674.4205939298</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>565707.8798939298</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>565810.4391939298</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>563212.5940939297</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>571288.9326939298</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>563123.2233939298</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>568168.0447939298</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>568042.7509939298</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>568904.0779939299</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>568904.0779939299</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>545068.6502939299</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>522526.4334939299</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>519640.6904939298</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>493739.0729939298</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>499217.3558939298</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -33220,11 +33220,17 @@
         <v>199204.3677321698</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>197</v>
+      </c>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33257,7 +33263,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33286,11 +33296,17 @@
         <v>246639.5809321698</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>196.3</v>
+      </c>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33319,11 +33335,17 @@
         <v>223910.1982321698</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>196.4</v>
+      </c>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33352,11 +33374,17 @@
         <v>223697.1982321698</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>196.1</v>
+      </c>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33385,11 +33413,17 @@
         <v>210573.6410321698</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>195.9</v>
+      </c>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33418,11 +33452,17 @@
         <v>210889.6410321698</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>192.6</v>
+      </c>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33451,11 +33491,17 @@
         <v>188719.5261321698</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>192.7</v>
+      </c>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33484,11 +33530,17 @@
         <v>197236.6070321698</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>190.1</v>
+      </c>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33525,7 +33577,7 @@
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1004" t="n">
@@ -33595,9 +33647,11 @@
         <v>179147.0547321698</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>195.6</v>
+      </c>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
@@ -33632,9 +33686,11 @@
         <v>206282.7071321698</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>193</v>
+      </c>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
@@ -33786,9 +33842,11 @@
         <v>192133.9459321698</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>194.8</v>
+      </c>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
@@ -33823,9 +33881,11 @@
         <v>159211.6199321698</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>196</v>
+      </c>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
@@ -33860,9 +33920,11 @@
         <v>159214.2199321698</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>195</v>
+      </c>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
@@ -33971,9 +34033,11 @@
         <v>151832.3982321698</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>195.2</v>
+      </c>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
@@ -34933,11 +34997,9 @@
         <v>131858.8070321698</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1042" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
@@ -35635,11 +35697,9 @@
         <v>152981.0763321698</v>
       </c>
       <c r="H1060" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1060" t="n">
-        <v>191.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
@@ -35674,11 +35734,9 @@
         <v>147868.3615321698</v>
       </c>
       <c r="H1061" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1061" t="n">
-        <v>197.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
@@ -35791,11 +35849,9 @@
         <v>145334.4924321698</v>
       </c>
       <c r="H1064" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1064" t="n">
-        <v>196.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
@@ -35830,11 +35886,9 @@
         <v>139816.6507321698</v>
       </c>
       <c r="H1065" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1065" t="n">
-        <v>196.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
@@ -35869,11 +35923,9 @@
         <v>140131.1748321698</v>
       </c>
       <c r="H1066" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1066" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
@@ -35908,11 +35960,9 @@
         <v>140131.1748321698</v>
       </c>
       <c r="H1067" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1067" t="n">
-        <v>195.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
@@ -35947,11 +35997,9 @@
         <v>140674.5973321698</v>
       </c>
       <c r="H1068" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1068" t="n">
-        <v>195.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
@@ -35986,11 +36034,9 @@
         <v>133069.0330321698</v>
       </c>
       <c r="H1069" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1069" t="n">
-        <v>196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
@@ -36103,9 +36149,11 @@
         <v>130674.0421321698</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>194.1</v>
+      </c>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
@@ -36140,9 +36188,11 @@
         <v>143821.9267321698</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>194.1</v>
+      </c>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
@@ -36177,9 +36227,11 @@
         <v>139090.5336321698</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>197.1</v>
+      </c>
       <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
@@ -36214,9 +36266,11 @@
         <v>146987.2467321698</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>193.1</v>
+      </c>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
@@ -36251,9 +36305,11 @@
         <v>146839.8819321698</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>197</v>
+      </c>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
@@ -36288,9 +36344,11 @@
         <v>146964.8819321698</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>194</v>
+      </c>
       <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
@@ -36325,9 +36383,11 @@
         <v>151612.9844321698</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>195</v>
+      </c>
       <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
@@ -36362,9 +36422,11 @@
         <v>151612.9844321698</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>196</v>
+      </c>
       <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
@@ -36399,9 +36461,11 @@
         <v>141770.8463321698</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>196</v>
+      </c>
       <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
@@ -36436,9 +36500,11 @@
         <v>146685.2400321698</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>191.1</v>
+      </c>
       <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
@@ -36473,9 +36539,11 @@
         <v>146688.7668321698</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>194.7</v>
+      </c>
       <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
@@ -36510,9 +36578,11 @@
         <v>146688.7668321698</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>195</v>
+      </c>
       <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
@@ -36547,9 +36617,11 @@
         <v>146298.2632321698</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>195</v>
+      </c>
       <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
@@ -36584,9 +36656,11 @@
         <v>146298.2632321698</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>193</v>
+      </c>
       <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
@@ -36621,9 +36695,11 @@
         <v>146298.2632321698</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>193</v>
+      </c>
       <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
@@ -36658,9 +36734,11 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>193</v>
+      </c>
       <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
@@ -36695,9 +36773,11 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>194.2</v>
+      </c>
       <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
@@ -37217,6 +37297,6 @@
       <c r="M1101" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-20 BackTest STEEM.xlsx
@@ -550,7 +550,7 @@
         <v>600352.1942065801</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>615163.47710658</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>641242.3873065801</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>411056.76517159</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>411056.76517159</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>785123.4930530301</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>765598.1847530301</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>810037.88575877</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>782396.72835877</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>774877.1113587701</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>696472.49295877</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>826189.4042942899</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>848550.59859429</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>814394.60309429</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>833904.89890558</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>828153.13610558</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>797999.73402079</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>796133.0296207899</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>788381.9858207899</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>757305.69243891</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>754802.5416389101</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>766811.9996389101</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>766678.92083891</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>779993.69093891</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>773466.89033891</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>776291.89033891</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>776291.89033891</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>777147.14343891</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>770076.14843891</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>756252.60863891</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>759265.43563891</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>758993.43563891</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>758993.43563891</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>758123.43563891</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>759193.75663891</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>758543.34593891</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>758216.28243891</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>758549.9454389099</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>744437.00893891</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>744440.00893891</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>742717.4452389099</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>742717.4452389099</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>739444.16703891</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>744629.23283891</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>742953.4289389099</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>811177.6487583299</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>784735.1872583299</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>758491.0391583299</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>795289.5196583299</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>839649.6576583299</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>880055.9292150099</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>867643.2504150099</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>851280.6684150099</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>822231.1894150098</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>821752.2878150098</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>821752.2878150098</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>816795.5217150098</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>816795.5217150098</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>810598.3336779898</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>797602.6516779898</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>798278.2151779898</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>770414.5614779898</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>714243.4822779897</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>738623.5307779898</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>739749.5307779898</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>738647.1624779898</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>742092.5953779898</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>751649.1203779897</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>755959.2117779898</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>773310.7425779897</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>773688.0488779898</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>798545.1837779897</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>796366.5279779898</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>795985.8279779898</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>795985.8279779898</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>796050.8279779898</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>789622.4899779898</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>789622.4899779898</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>789430.6008779898</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>789588.0308779898</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>790347.0758779899</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>788894.0178779899</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>784573.4049035298</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>794854.6172035298</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>787978.4172035299</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>785163.8387035299</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>785163.8387035299</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>785163.8387035299</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>784824.2387035299</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>782127.7342035299</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>718213.8744489099</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>718678.5080489098</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>716276.8418489099</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>716276.8418489099</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>716276.8418489099</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>723395.7705489099</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>715243.6057736599</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>719022.7884217999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>732611.7963217999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>731271.9589217999</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>743121.9489217999</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>715651.1024217999</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>488111.6731838202</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>471822.2918009402</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>393302.1192009402</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>406856.2045009402</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>324160.5571529102</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>404550.3165927401</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>355579.6032174102</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>360402.1618174101</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>332285.6105174102</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>288841.3678174102</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>309746.8551174101</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>350108.7333174101</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>381526.5779174101</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>405340.6788174101</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>478312.9887174101</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>478312.9887174101</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>473674.1860174101</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>473674.1860174101</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>451153.1863889101</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>452240.3186889101</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>444430.6274889101</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>435763.6347889101</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>438172.3470889101</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>445319.3660889101</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>443747.3660889101</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>451244.8980889102</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>441099.3663889102</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>444683.2097889102</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>438437.6312889102</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>477146.8360889102</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>502991.5683041302</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>495275.0040041301</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>486768.0279041302</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>518371.7004503102</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>502845.9960964902</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>517855.1328964902</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>517855.1328964902</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>517151.5593964902</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>517151.5593964902</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>489214.0221964901</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>442742.8724964901</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>451703.0065964902</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>450785.0282935802</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>448204.4707935802</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>443524.1230935802</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>435527.6826935802</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>435527.6826935802</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>434729.7847935802</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>638070.3587407799</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>611578.8087407799</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>589459.7957352399</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>652148.4795296999</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>652148.4795296999</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>761028.5216296999</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>564111.9933081999</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>594912.8100081999</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>555751.6809550299</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>555751.6809550299</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>536524.3615939299</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>556685.13549393</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>556685.13549393</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>556685.13549393</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>588139.2132939299</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>595687.6799939299</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>611359.7044939299</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>592674.4205939298</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>565707.8798939298</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>565810.4391939298</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>563212.5940939297</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>571288.9326939298</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>563123.2233939298</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>568168.0447939298</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>568042.7509939298</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>568904.0779939299</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>568904.0779939299</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>545068.6502939299</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>522526.4334939299</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>519640.6904939298</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>493739.0729939298</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>499217.3558939298</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -33220,1948 +33220,1706 @@
         <v>199204.3677321698</v>
       </c>
       <c r="H995" t="n">
-        <v>1</v>
-      </c>
-      <c r="I995" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
+      <c r="K995" t="inlineStr"/>
+      <c r="L995" t="n">
+        <v>1</v>
+      </c>
+      <c r="M995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="C996" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="D996" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="E996" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="F996" t="n">
+        <v>16516.1655</v>
+      </c>
+      <c r="G996" t="n">
+        <v>199204.3677321698</v>
+      </c>
+      <c r="H996" t="n">
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
+      <c r="L996" t="n">
+        <v>1</v>
+      </c>
+      <c r="M996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" t="n">
+        <v>196.2</v>
+      </c>
+      <c r="C997" t="n">
+        <v>196.4</v>
+      </c>
+      <c r="D997" t="n">
+        <v>196.4</v>
+      </c>
+      <c r="E997" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="F997" t="n">
+        <v>47435.2132</v>
+      </c>
+      <c r="G997" t="n">
+        <v>246639.5809321698</v>
+      </c>
+      <c r="H997" t="n">
+        <v>0</v>
+      </c>
+      <c r="I997" t="inlineStr"/>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
+      <c r="L997" t="n">
+        <v>1</v>
+      </c>
+      <c r="M997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="C998" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="D998" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="E998" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="F998" t="n">
+        <v>22729.3827</v>
+      </c>
+      <c r="G998" t="n">
+        <v>223910.1982321698</v>
+      </c>
+      <c r="H998" t="n">
+        <v>0</v>
+      </c>
+      <c r="I998" t="inlineStr"/>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
+      <c r="L998" t="n">
+        <v>1</v>
+      </c>
+      <c r="M998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" t="n">
+        <v>195</v>
+      </c>
+      <c r="C999" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="D999" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="E999" t="n">
+        <v>195</v>
+      </c>
+      <c r="F999" t="n">
+        <v>213</v>
+      </c>
+      <c r="G999" t="n">
+        <v>223697.1982321698</v>
+      </c>
+      <c r="H999" t="n">
+        <v>0</v>
+      </c>
+      <c r="I999" t="inlineStr"/>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
+      <c r="L999" t="n">
+        <v>1</v>
+      </c>
+      <c r="M999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>192.6</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>192.6</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>13123.5572</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>210573.6410321698</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1000" t="inlineStr"/>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
+      <c r="L1000" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>192.6</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>192.6</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>316</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>210889.6410321698</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1001" t="inlineStr"/>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
+      <c r="L1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>190</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>22170.1149</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>188719.5261321698</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1002" t="inlineStr"/>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
+      <c r="L1002" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>8517.080900000001</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>197236.6070321698</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
+      <c r="L1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>195.7</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>195.7</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>7722.4861</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>204959.0931321698</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1004" t="inlineStr"/>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
+      <c r="L1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>192.1</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>7190.2041</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>197768.8890321698</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
+      <c r="L1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>193</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>18621.8343</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>179147.0547321698</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
+      <c r="L1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>193</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>195</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>195</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>193</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>27135.6524</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>206282.7071321698</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
+      <c r="L1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>195</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>24378.7171</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>181903.9900321698</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1008" t="inlineStr"/>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
+      <c r="L1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>194</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>194.7</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>194.7</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>193</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>3839.4731</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>178064.5169321698</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
+      <c r="L1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>193</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>193</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>5776.0077</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>183840.5246321698</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
+      <c r="L1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>195</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>196</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>196</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>195</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>8293.4213</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>192133.9459321698</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr"/>
+      <c r="L1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>195</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>195</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>195</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>32922.326</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>159211.6199321698</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
+      <c r="J1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr"/>
+      <c r="L1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>159214.2199321698</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
+      <c r="J1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr"/>
+      <c r="L1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>7554.6596</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>151659.5603321698</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
+      <c r="J1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr"/>
+      <c r="L1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>156.7923</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>151502.7680321698</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
+      <c r="J1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr"/>
+      <c r="L1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>196.2</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>196.2</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>329.6302</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>151832.3982321698</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
+      <c r="J1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr"/>
+      <c r="L1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>198</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>198</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>198</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>198</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>2112.2154</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>153944.6136321698</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
+      <c r="J1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr"/>
+      <c r="L1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>198</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>198</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>7741.5308</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>161686.1444321698</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
+      <c r="J1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr"/>
+      <c r="L1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>161704.1144321698</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
+      <c r="J1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr"/>
+      <c r="L1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>200</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>200</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>161644.1144321698</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
+      <c r="L1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>203.9</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>203.8</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>203.9</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>1520.2138</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>163164.3282321698</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
+      <c r="J1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr"/>
+      <c r="L1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>200</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>200</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>201</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>10095.1619</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>153069.1663321698</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
+      <c r="J1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr"/>
+      <c r="L1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>201</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>200</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>201</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>5664.2422</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>153069.1663321698</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
+      <c r="J1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr"/>
+      <c r="L1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>200</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>201.9</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>201.9</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>9465.4887</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>162534.6550321698</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
+      <c r="J1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr"/>
+      <c r="L1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>201</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>200</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>201.8</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>11763.6482</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>150771.0068321698</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1025" t="inlineStr"/>
+      <c r="J1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr"/>
+      <c r="L1025" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>196</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>195.1</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>14396.4282</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>136374.5786321698</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
+      <c r="J1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr"/>
+      <c r="L1026" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>136296.1786321698</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
+      <c r="J1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr"/>
+      <c r="L1027" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>198</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>1883.0326</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>138179.2112321698</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
+      <c r="J1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr"/>
+      <c r="L1028" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>138181.8112321698</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
+      <c r="J1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr"/>
+      <c r="L1029" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>43.1002</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>138181.8112321698</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
+      <c r="J1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr"/>
+      <c r="L1030" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>200</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>194</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>7563.2374</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>145745.0486321698</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
+      <c r="J1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr"/>
+      <c r="L1031" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>199</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>200</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>3549.0879</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>145745.0486321698</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1032" t="inlineStr"/>
+      <c r="J1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr"/>
+      <c r="L1032" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>196</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>200</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>1473.7641</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>145745.0486321698</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
+      <c r="J1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr"/>
+      <c r="L1033" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>145742.0486321698</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
+      <c r="J1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr"/>
+      <c r="L1034" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>196</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>196</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>149.96</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>145592.0886321698</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
+      <c r="J1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr"/>
+      <c r="L1035" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>4922.5492</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>140669.5394321698</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1036" t="inlineStr"/>
+      <c r="J1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr"/>
+      <c r="L1036" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>6679.9664</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>140669.5394321698</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1037" t="inlineStr"/>
+      <c r="J1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr"/>
+      <c r="L1037" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>195.7</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>195.7</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>1712.2753</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>142381.8147321698</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1038" t="inlineStr"/>
+      <c r="J1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr"/>
+      <c r="L1038" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>193</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>193</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>193</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>193</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>234.0411</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>142147.7736321698</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1039" t="inlineStr"/>
+      <c r="J1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr"/>
+      <c r="L1039" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>193</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>193</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>6300.8782</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>135846.8954321698</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1040" t="inlineStr"/>
+      <c r="J1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr"/>
+      <c r="L1040" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>191</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>191</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>1945.0593</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>133901.8361321698</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1041" t="inlineStr"/>
+      <c r="J1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr"/>
+      <c r="L1041" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>2043.0291</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>131858.8070321698</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1042" t="inlineStr"/>
+      <c r="J1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr"/>
+      <c r="L1042" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>191</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>191</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>6629.3044</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>138488.1114321698</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
+      <c r="J1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr"/>
+      <c r="L1043" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>190</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>191</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>2803.7292</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>135684.3822321698</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
+      <c r="J1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr"/>
+      <c r="L1044" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>2733.0369</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>138417.4191321698</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="K1045" t="inlineStr"/>
+      <c r="L1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>191</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>6852.6719</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>131564.7472321698</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="K1046" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L995" t="n">
-        <v>1</v>
-      </c>
-      <c r="M995" t="inlineStr"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="1" t="n">
-        <v>994</v>
-      </c>
-      <c r="B996" t="n">
-        <v>196.3</v>
-      </c>
-      <c r="C996" t="n">
-        <v>196.3</v>
-      </c>
-      <c r="D996" t="n">
-        <v>196.3</v>
-      </c>
-      <c r="E996" t="n">
-        <v>196.3</v>
-      </c>
-      <c r="F996" t="n">
-        <v>16516.1655</v>
-      </c>
-      <c r="G996" t="n">
-        <v>199204.3677321698</v>
-      </c>
-      <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L996" t="n">
-        <v>1</v>
-      </c>
-      <c r="M996" t="inlineStr"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="1" t="n">
-        <v>995</v>
-      </c>
-      <c r="B997" t="n">
-        <v>196.2</v>
-      </c>
-      <c r="C997" t="n">
-        <v>196.4</v>
-      </c>
-      <c r="D997" t="n">
-        <v>196.4</v>
-      </c>
-      <c r="E997" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="F997" t="n">
-        <v>47435.2132</v>
-      </c>
-      <c r="G997" t="n">
-        <v>246639.5809321698</v>
-      </c>
-      <c r="H997" t="n">
-        <v>1</v>
-      </c>
-      <c r="I997" t="n">
-        <v>196.3</v>
-      </c>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L997" t="n">
-        <v>1</v>
-      </c>
-      <c r="M997" t="inlineStr"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="1" t="n">
-        <v>996</v>
-      </c>
-      <c r="B998" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="C998" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="D998" t="n">
-        <v>196.3</v>
-      </c>
-      <c r="E998" t="n">
-        <v>191.4</v>
-      </c>
-      <c r="F998" t="n">
-        <v>22729.3827</v>
-      </c>
-      <c r="G998" t="n">
-        <v>223910.1982321698</v>
-      </c>
-      <c r="H998" t="n">
-        <v>1</v>
-      </c>
-      <c r="I998" t="n">
-        <v>196.4</v>
-      </c>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L998" t="n">
-        <v>1</v>
-      </c>
-      <c r="M998" t="inlineStr"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="1" t="n">
-        <v>997</v>
-      </c>
-      <c r="B999" t="n">
-        <v>195</v>
-      </c>
-      <c r="C999" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="D999" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="E999" t="n">
-        <v>195</v>
-      </c>
-      <c r="F999" t="n">
-        <v>213</v>
-      </c>
-      <c r="G999" t="n">
-        <v>223697.1982321698</v>
-      </c>
-      <c r="H999" t="n">
-        <v>1</v>
-      </c>
-      <c r="I999" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L999" t="n">
-        <v>1</v>
-      </c>
-      <c r="M999" t="inlineStr"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="1" t="n">
-        <v>998</v>
-      </c>
-      <c r="B1000" t="n">
-        <v>192.7</v>
-      </c>
-      <c r="C1000" t="n">
-        <v>192.6</v>
-      </c>
-      <c r="D1000" t="n">
-        <v>192.7</v>
-      </c>
-      <c r="E1000" t="n">
-        <v>192.6</v>
-      </c>
-      <c r="F1000" t="n">
-        <v>13123.5572</v>
-      </c>
-      <c r="G1000" t="n">
-        <v>210573.6410321698</v>
-      </c>
-      <c r="H1000" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1000" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1000" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1000" t="inlineStr"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="B1001" t="n">
-        <v>192.6</v>
-      </c>
-      <c r="C1001" t="n">
-        <v>192.7</v>
-      </c>
-      <c r="D1001" t="n">
-        <v>192.7</v>
-      </c>
-      <c r="E1001" t="n">
-        <v>192.6</v>
-      </c>
-      <c r="F1001" t="n">
-        <v>316</v>
-      </c>
-      <c r="G1001" t="n">
-        <v>210889.6410321698</v>
-      </c>
-      <c r="H1001" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1001" t="n">
-        <v>192.6</v>
-      </c>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1001" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1001" t="inlineStr"/>
-    </row>
-    <row r="1002">
-      <c r="A1002" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B1002" t="n">
-        <v>191.6</v>
-      </c>
-      <c r="C1002" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="D1002" t="n">
-        <v>192.7</v>
-      </c>
-      <c r="E1002" t="n">
-        <v>190</v>
-      </c>
-      <c r="F1002" t="n">
-        <v>22170.1149</v>
-      </c>
-      <c r="G1002" t="n">
-        <v>188719.5261321698</v>
-      </c>
-      <c r="H1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1002" t="n">
-        <v>192.7</v>
-      </c>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1002" t="inlineStr"/>
-    </row>
-    <row r="1003">
-      <c r="A1003" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B1003" t="n">
-        <v>191.3</v>
-      </c>
-      <c r="C1003" t="n">
-        <v>191.3</v>
-      </c>
-      <c r="D1003" t="n">
-        <v>191.3</v>
-      </c>
-      <c r="E1003" t="n">
-        <v>191.3</v>
-      </c>
-      <c r="F1003" t="n">
-        <v>8517.080900000001</v>
-      </c>
-      <c r="G1003" t="n">
-        <v>197236.6070321698</v>
-      </c>
-      <c r="H1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1003" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1003" t="inlineStr"/>
-    </row>
-    <row r="1004">
-      <c r="A1004" s="1" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>191.3</v>
-      </c>
-      <c r="C1004" t="n">
-        <v>195.7</v>
-      </c>
-      <c r="D1004" t="n">
-        <v>195.7</v>
-      </c>
-      <c r="E1004" t="n">
-        <v>191.3</v>
-      </c>
-      <c r="F1004" t="n">
-        <v>7722.4861</v>
-      </c>
-      <c r="G1004" t="n">
-        <v>204959.0931321698</v>
-      </c>
-      <c r="H1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1004" t="n">
-        <v>191.3</v>
-      </c>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1004" t="inlineStr"/>
-    </row>
-    <row r="1005">
-      <c r="A1005" s="1" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="C1005" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="D1005" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="E1005" t="n">
-        <v>192.1</v>
-      </c>
-      <c r="F1005" t="n">
-        <v>7190.2041</v>
-      </c>
-      <c r="G1005" t="n">
-        <v>197768.8890321698</v>
-      </c>
-      <c r="H1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1005" t="n">
-        <v>195.7</v>
-      </c>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1005" t="inlineStr"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="1" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>195.5</v>
-      </c>
-      <c r="C1006" t="n">
-        <v>193</v>
-      </c>
-      <c r="D1006" t="n">
-        <v>195.5</v>
-      </c>
-      <c r="E1006" t="n">
-        <v>191.4</v>
-      </c>
-      <c r="F1006" t="n">
-        <v>18621.8343</v>
-      </c>
-      <c r="G1006" t="n">
-        <v>179147.0547321698</v>
-      </c>
-      <c r="H1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1006" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1006" t="inlineStr"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="1" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B1007" t="n">
-        <v>193</v>
-      </c>
-      <c r="C1007" t="n">
-        <v>195</v>
-      </c>
-      <c r="D1007" t="n">
-        <v>195</v>
-      </c>
-      <c r="E1007" t="n">
-        <v>193</v>
-      </c>
-      <c r="F1007" t="n">
-        <v>27135.6524</v>
-      </c>
-      <c r="G1007" t="n">
-        <v>206282.7071321698</v>
-      </c>
-      <c r="H1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1007" t="n">
-        <v>193</v>
-      </c>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1007" t="inlineStr"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="B1008" t="n">
-        <v>194.9</v>
-      </c>
-      <c r="C1008" t="n">
-        <v>194.9</v>
-      </c>
-      <c r="D1008" t="n">
-        <v>195</v>
-      </c>
-      <c r="E1008" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="F1008" t="n">
-        <v>24378.7171</v>
-      </c>
-      <c r="G1008" t="n">
-        <v>181903.9900321698</v>
-      </c>
-      <c r="H1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1008" t="n">
-        <v>195</v>
-      </c>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1008" t="inlineStr"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="1" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>194</v>
-      </c>
-      <c r="C1009" t="n">
-        <v>194.7</v>
-      </c>
-      <c r="D1009" t="n">
-        <v>194.7</v>
-      </c>
-      <c r="E1009" t="n">
-        <v>193</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>3839.4731</v>
-      </c>
-      <c r="G1009" t="n">
-        <v>178064.5169321698</v>
-      </c>
-      <c r="H1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1009" t="n">
-        <v>194.9</v>
-      </c>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1009" t="inlineStr"/>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="1" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>193</v>
-      </c>
-      <c r="C1010" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="D1010" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="E1010" t="n">
-        <v>193</v>
-      </c>
-      <c r="F1010" t="n">
-        <v>5776.0077</v>
-      </c>
-      <c r="G1010" t="n">
-        <v>183840.5246321698</v>
-      </c>
-      <c r="H1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1010" t="n">
-        <v>194.7</v>
-      </c>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1010" t="inlineStr"/>
-    </row>
-    <row r="1011">
-      <c r="A1011" s="1" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B1011" t="n">
-        <v>195</v>
-      </c>
-      <c r="C1011" t="n">
-        <v>196</v>
-      </c>
-      <c r="D1011" t="n">
-        <v>196</v>
-      </c>
-      <c r="E1011" t="n">
-        <v>195</v>
-      </c>
-      <c r="F1011" t="n">
-        <v>8293.4213</v>
-      </c>
-      <c r="G1011" t="n">
-        <v>192133.9459321698</v>
-      </c>
-      <c r="H1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1011" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1011" t="inlineStr"/>
-    </row>
-    <row r="1012">
-      <c r="A1012" s="1" t="n">
-        <v>1010</v>
-      </c>
-      <c r="B1012" t="n">
-        <v>195</v>
-      </c>
-      <c r="C1012" t="n">
-        <v>195</v>
-      </c>
-      <c r="D1012" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="E1012" t="n">
-        <v>195</v>
-      </c>
-      <c r="F1012" t="n">
-        <v>32922.326</v>
-      </c>
-      <c r="G1012" t="n">
-        <v>159211.6199321698</v>
-      </c>
-      <c r="H1012" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1012" t="n">
-        <v>196</v>
-      </c>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1012" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1012" t="inlineStr"/>
-    </row>
-    <row r="1013">
-      <c r="A1013" s="1" t="n">
-        <v>1011</v>
-      </c>
-      <c r="B1013" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="C1013" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="D1013" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="E1013" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="F1013" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G1013" t="n">
-        <v>159214.2199321698</v>
-      </c>
-      <c r="H1013" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1013" t="n">
-        <v>195</v>
-      </c>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1013" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1013" t="inlineStr"/>
-    </row>
-    <row r="1014">
-      <c r="A1014" s="1" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B1014" t="n">
-        <v>198.7</v>
-      </c>
-      <c r="C1014" t="n">
-        <v>198.7</v>
-      </c>
-      <c r="D1014" t="n">
-        <v>198.7</v>
-      </c>
-      <c r="E1014" t="n">
-        <v>198.7</v>
-      </c>
-      <c r="F1014" t="n">
-        <v>7554.6596</v>
-      </c>
-      <c r="G1014" t="n">
-        <v>151659.5603321698</v>
-      </c>
-      <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1014" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1014" t="inlineStr"/>
-    </row>
-    <row r="1015">
-      <c r="A1015" s="1" t="n">
-        <v>1013</v>
-      </c>
-      <c r="B1015" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="C1015" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="D1015" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="E1015" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="F1015" t="n">
-        <v>156.7923</v>
-      </c>
-      <c r="G1015" t="n">
-        <v>151502.7680321698</v>
-      </c>
-      <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1015" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1015" t="inlineStr"/>
-    </row>
-    <row r="1016">
-      <c r="A1016" s="1" t="n">
-        <v>1014</v>
-      </c>
-      <c r="B1016" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="C1016" t="n">
-        <v>196.2</v>
-      </c>
-      <c r="D1016" t="n">
-        <v>196.2</v>
-      </c>
-      <c r="E1016" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="F1016" t="n">
-        <v>329.6302</v>
-      </c>
-      <c r="G1016" t="n">
-        <v>151832.3982321698</v>
-      </c>
-      <c r="H1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1016" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1016" t="inlineStr"/>
-    </row>
-    <row r="1017">
-      <c r="A1017" s="1" t="n">
-        <v>1015</v>
-      </c>
-      <c r="B1017" t="n">
-        <v>198</v>
-      </c>
-      <c r="C1017" t="n">
-        <v>198</v>
-      </c>
-      <c r="D1017" t="n">
-        <v>198</v>
-      </c>
-      <c r="E1017" t="n">
-        <v>198</v>
-      </c>
-      <c r="F1017" t="n">
-        <v>2112.2154</v>
-      </c>
-      <c r="G1017" t="n">
-        <v>153944.6136321698</v>
-      </c>
-      <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1017" t="inlineStr"/>
-    </row>
-    <row r="1018">
-      <c r="A1018" s="1" t="n">
-        <v>1016</v>
-      </c>
-      <c r="B1018" t="n">
-        <v>198</v>
-      </c>
-      <c r="C1018" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="D1018" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="E1018" t="n">
-        <v>198</v>
-      </c>
-      <c r="F1018" t="n">
-        <v>7741.5308</v>
-      </c>
-      <c r="G1018" t="n">
-        <v>161686.1444321698</v>
-      </c>
-      <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1018" t="inlineStr"/>
-    </row>
-    <row r="1019">
-      <c r="A1019" s="1" t="n">
-        <v>1017</v>
-      </c>
-      <c r="B1019" t="n">
-        <v>200.9</v>
-      </c>
-      <c r="C1019" t="n">
-        <v>200.9</v>
-      </c>
-      <c r="D1019" t="n">
-        <v>200.9</v>
-      </c>
-      <c r="E1019" t="n">
-        <v>200.9</v>
-      </c>
-      <c r="F1019" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="G1019" t="n">
-        <v>161704.1144321698</v>
-      </c>
-      <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1019" t="inlineStr"/>
-    </row>
-    <row r="1020">
-      <c r="A1020" s="1" t="n">
-        <v>1018</v>
-      </c>
-      <c r="B1020" t="n">
-        <v>200</v>
-      </c>
-      <c r="C1020" t="n">
-        <v>200</v>
-      </c>
-      <c r="D1020" t="n">
-        <v>200</v>
-      </c>
-      <c r="E1020" t="n">
-        <v>200</v>
-      </c>
-      <c r="F1020" t="n">
-        <v>60</v>
-      </c>
-      <c r="G1020" t="n">
-        <v>161644.1144321698</v>
-      </c>
-      <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1020" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1020" t="inlineStr"/>
-    </row>
-    <row r="1021">
-      <c r="A1021" s="1" t="n">
-        <v>1019</v>
-      </c>
-      <c r="B1021" t="n">
-        <v>203.9</v>
-      </c>
-      <c r="C1021" t="n">
-        <v>203.8</v>
-      </c>
-      <c r="D1021" t="n">
-        <v>203.9</v>
-      </c>
-      <c r="E1021" t="n">
-        <v>200</v>
-      </c>
-      <c r="F1021" t="n">
-        <v>1520.2138</v>
-      </c>
-      <c r="G1021" t="n">
-        <v>163164.3282321698</v>
-      </c>
-      <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1021" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1021" t="inlineStr"/>
-    </row>
-    <row r="1022">
-      <c r="A1022" s="1" t="n">
-        <v>1020</v>
-      </c>
-      <c r="B1022" t="n">
-        <v>200</v>
-      </c>
-      <c r="C1022" t="n">
-        <v>200</v>
-      </c>
-      <c r="D1022" t="n">
-        <v>201</v>
-      </c>
-      <c r="E1022" t="n">
-        <v>200</v>
-      </c>
-      <c r="F1022" t="n">
-        <v>10095.1619</v>
-      </c>
-      <c r="G1022" t="n">
-        <v>153069.1663321698</v>
-      </c>
-      <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1022" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1022" t="inlineStr"/>
-    </row>
-    <row r="1023">
-      <c r="A1023" s="1" t="n">
-        <v>1021</v>
-      </c>
-      <c r="B1023" t="n">
-        <v>201</v>
-      </c>
-      <c r="C1023" t="n">
-        <v>200</v>
-      </c>
-      <c r="D1023" t="n">
-        <v>201</v>
-      </c>
-      <c r="E1023" t="n">
-        <v>200</v>
-      </c>
-      <c r="F1023" t="n">
-        <v>5664.2422</v>
-      </c>
-      <c r="G1023" t="n">
-        <v>153069.1663321698</v>
-      </c>
-      <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1023" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1023" t="inlineStr"/>
-    </row>
-    <row r="1024">
-      <c r="A1024" s="1" t="n">
-        <v>1022</v>
-      </c>
-      <c r="B1024" t="n">
-        <v>200</v>
-      </c>
-      <c r="C1024" t="n">
-        <v>201.9</v>
-      </c>
-      <c r="D1024" t="n">
-        <v>201.9</v>
-      </c>
-      <c r="E1024" t="n">
-        <v>200</v>
-      </c>
-      <c r="F1024" t="n">
-        <v>9465.4887</v>
-      </c>
-      <c r="G1024" t="n">
-        <v>162534.6550321698</v>
-      </c>
-      <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1024" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1024" t="inlineStr"/>
-    </row>
-    <row r="1025">
-      <c r="A1025" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="B1025" t="n">
-        <v>201</v>
-      </c>
-      <c r="C1025" t="n">
-        <v>200</v>
-      </c>
-      <c r="D1025" t="n">
-        <v>201.8</v>
-      </c>
-      <c r="E1025" t="n">
-        <v>193.9</v>
-      </c>
-      <c r="F1025" t="n">
-        <v>11763.6482</v>
-      </c>
-      <c r="G1025" t="n">
-        <v>150771.0068321698</v>
-      </c>
-      <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1025" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1025" t="inlineStr"/>
-    </row>
-    <row r="1026">
-      <c r="A1026" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="B1026" t="n">
-        <v>196</v>
-      </c>
-      <c r="C1026" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="D1026" t="n">
-        <v>200</v>
-      </c>
-      <c r="E1026" t="n">
-        <v>195.1</v>
-      </c>
-      <c r="F1026" t="n">
-        <v>14396.4282</v>
-      </c>
-      <c r="G1026" t="n">
-        <v>136374.5786321698</v>
-      </c>
-      <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1026" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1026" t="inlineStr"/>
-    </row>
-    <row r="1027">
-      <c r="A1027" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B1027" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="C1027" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="D1027" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="E1027" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="F1027" t="n">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="G1027" t="n">
-        <v>136296.1786321698</v>
-      </c>
-      <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1027" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1027" t="inlineStr"/>
-    </row>
-    <row r="1028">
-      <c r="A1028" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B1028" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="C1028" t="n">
-        <v>198</v>
-      </c>
-      <c r="D1028" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="E1028" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="F1028" t="n">
-        <v>1883.0326</v>
-      </c>
-      <c r="G1028" t="n">
-        <v>138179.2112321698</v>
-      </c>
-      <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1028" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1028" t="inlineStr"/>
-    </row>
-    <row r="1029">
-      <c r="A1029" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B1029" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="C1029" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="D1029" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="E1029" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="F1029" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G1029" t="n">
-        <v>138181.8112321698</v>
-      </c>
-      <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1029" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1029" t="inlineStr"/>
-    </row>
-    <row r="1030">
-      <c r="A1030" s="1" t="n">
-        <v>1028</v>
-      </c>
-      <c r="B1030" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="C1030" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="D1030" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="E1030" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="F1030" t="n">
-        <v>43.1002</v>
-      </c>
-      <c r="G1030" t="n">
-        <v>138181.8112321698</v>
-      </c>
-      <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1030" t="inlineStr"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" s="1" t="n">
-        <v>1029</v>
-      </c>
-      <c r="B1031" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="C1031" t="n">
-        <v>200</v>
-      </c>
-      <c r="D1031" t="n">
-        <v>200</v>
-      </c>
-      <c r="E1031" t="n">
-        <v>194</v>
-      </c>
-      <c r="F1031" t="n">
-        <v>7563.2374</v>
-      </c>
-      <c r="G1031" t="n">
-        <v>145745.0486321698</v>
-      </c>
-      <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1031" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1031" t="inlineStr"/>
-    </row>
-    <row r="1032">
-      <c r="A1032" s="1" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B1032" t="n">
-        <v>199</v>
-      </c>
-      <c r="C1032" t="n">
-        <v>200</v>
-      </c>
-      <c r="D1032" t="n">
-        <v>200</v>
-      </c>
-      <c r="E1032" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="F1032" t="n">
-        <v>3549.0879</v>
-      </c>
-      <c r="G1032" t="n">
-        <v>145745.0486321698</v>
-      </c>
-      <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1032" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1032" t="inlineStr"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" s="1" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B1033" t="n">
-        <v>196</v>
-      </c>
-      <c r="C1033" t="n">
-        <v>200</v>
-      </c>
-      <c r="D1033" t="n">
-        <v>200</v>
-      </c>
-      <c r="E1033" t="n">
-        <v>195.3</v>
-      </c>
-      <c r="F1033" t="n">
-        <v>1473.7641</v>
-      </c>
-      <c r="G1033" t="n">
-        <v>145745.0486321698</v>
-      </c>
-      <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1033" t="inlineStr"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" s="1" t="n">
-        <v>1032</v>
-      </c>
-      <c r="B1034" t="n">
-        <v>199.9</v>
-      </c>
-      <c r="C1034" t="n">
-        <v>199.9</v>
-      </c>
-      <c r="D1034" t="n">
-        <v>199.9</v>
-      </c>
-      <c r="E1034" t="n">
-        <v>199.9</v>
-      </c>
-      <c r="F1034" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1034" t="n">
-        <v>145742.0486321698</v>
-      </c>
-      <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1034" t="inlineStr"/>
-    </row>
-    <row r="1035">
-      <c r="A1035" s="1" t="n">
-        <v>1033</v>
-      </c>
-      <c r="B1035" t="n">
-        <v>196.3</v>
-      </c>
-      <c r="C1035" t="n">
-        <v>196</v>
-      </c>
-      <c r="D1035" t="n">
-        <v>196.3</v>
-      </c>
-      <c r="E1035" t="n">
-        <v>196</v>
-      </c>
-      <c r="F1035" t="n">
-        <v>149.96</v>
-      </c>
-      <c r="G1035" t="n">
-        <v>145592.0886321698</v>
-      </c>
-      <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1035" t="inlineStr"/>
-    </row>
-    <row r="1036">
-      <c r="A1036" s="1" t="n">
-        <v>1034</v>
-      </c>
-      <c r="B1036" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="C1036" t="n">
-        <v>193.8</v>
-      </c>
-      <c r="D1036" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="E1036" t="n">
-        <v>193.8</v>
-      </c>
-      <c r="F1036" t="n">
-        <v>4922.5492</v>
-      </c>
-      <c r="G1036" t="n">
-        <v>140669.5394321698</v>
-      </c>
-      <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1036" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1036" t="inlineStr"/>
-    </row>
-    <row r="1037">
-      <c r="A1037" s="1" t="n">
-        <v>1035</v>
-      </c>
-      <c r="B1037" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="C1037" t="n">
-        <v>193.8</v>
-      </c>
-      <c r="D1037" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="E1037" t="n">
-        <v>193.8</v>
-      </c>
-      <c r="F1037" t="n">
-        <v>6679.9664</v>
-      </c>
-      <c r="G1037" t="n">
-        <v>140669.5394321698</v>
-      </c>
-      <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1037" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1037" t="inlineStr"/>
-    </row>
-    <row r="1038">
-      <c r="A1038" s="1" t="n">
-        <v>1036</v>
-      </c>
-      <c r="B1038" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="C1038" t="n">
-        <v>195.7</v>
-      </c>
-      <c r="D1038" t="n">
-        <v>195.7</v>
-      </c>
-      <c r="E1038" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="F1038" t="n">
-        <v>1712.2753</v>
-      </c>
-      <c r="G1038" t="n">
-        <v>142381.8147321698</v>
-      </c>
-      <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1038" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1038" t="inlineStr"/>
-    </row>
-    <row r="1039">
-      <c r="A1039" s="1" t="n">
-        <v>1037</v>
-      </c>
-      <c r="B1039" t="n">
-        <v>193</v>
-      </c>
-      <c r="C1039" t="n">
-        <v>193</v>
-      </c>
-      <c r="D1039" t="n">
-        <v>193</v>
-      </c>
-      <c r="E1039" t="n">
-        <v>193</v>
-      </c>
-      <c r="F1039" t="n">
-        <v>234.0411</v>
-      </c>
-      <c r="G1039" t="n">
-        <v>142147.7736321698</v>
-      </c>
-      <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1039" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1039" t="inlineStr"/>
-    </row>
-    <row r="1040">
-      <c r="A1040" s="1" t="n">
-        <v>1038</v>
-      </c>
-      <c r="B1040" t="n">
-        <v>193</v>
-      </c>
-      <c r="C1040" t="n">
-        <v>192.2</v>
-      </c>
-      <c r="D1040" t="n">
-        <v>193</v>
-      </c>
-      <c r="E1040" t="n">
-        <v>192.2</v>
-      </c>
-      <c r="F1040" t="n">
-        <v>6300.8782</v>
-      </c>
-      <c r="G1040" t="n">
-        <v>135846.8954321698</v>
-      </c>
-      <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1040" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1040" t="inlineStr"/>
-    </row>
-    <row r="1041">
-      <c r="A1041" s="1" t="n">
-        <v>1039</v>
-      </c>
-      <c r="B1041" t="n">
-        <v>192.2</v>
-      </c>
-      <c r="C1041" t="n">
-        <v>191</v>
-      </c>
-      <c r="D1041" t="n">
-        <v>192.2</v>
-      </c>
-      <c r="E1041" t="n">
-        <v>191</v>
-      </c>
-      <c r="F1041" t="n">
-        <v>1945.0593</v>
-      </c>
-      <c r="G1041" t="n">
-        <v>133901.8361321698</v>
-      </c>
-      <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1041" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1041" t="inlineStr"/>
-    </row>
-    <row r="1042">
-      <c r="A1042" s="1" t="n">
-        <v>1040</v>
-      </c>
-      <c r="B1042" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="C1042" t="n">
-        <v>189.4</v>
-      </c>
-      <c r="D1042" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="E1042" t="n">
-        <v>189.4</v>
-      </c>
-      <c r="F1042" t="n">
-        <v>2043.0291</v>
-      </c>
-      <c r="G1042" t="n">
-        <v>131858.8070321698</v>
-      </c>
-      <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1042" t="inlineStr"/>
-    </row>
-    <row r="1043">
-      <c r="A1043" s="1" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B1043" t="n">
-        <v>189.4</v>
-      </c>
-      <c r="C1043" t="n">
-        <v>191</v>
-      </c>
-      <c r="D1043" t="n">
-        <v>191</v>
-      </c>
-      <c r="E1043" t="n">
-        <v>189.4</v>
-      </c>
-      <c r="F1043" t="n">
-        <v>6629.3044</v>
-      </c>
-      <c r="G1043" t="n">
-        <v>138488.1114321698</v>
-      </c>
-      <c r="H1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1043" t="n">
-        <v>189.4</v>
-      </c>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1043" t="inlineStr"/>
-    </row>
-    <row r="1044">
-      <c r="A1044" s="1" t="n">
-        <v>1042</v>
-      </c>
-      <c r="B1044" t="n">
-        <v>190</v>
-      </c>
-      <c r="C1044" t="n">
-        <v>188.2</v>
-      </c>
-      <c r="D1044" t="n">
-        <v>191</v>
-      </c>
-      <c r="E1044" t="n">
-        <v>188.2</v>
-      </c>
-      <c r="F1044" t="n">
-        <v>2803.7292</v>
-      </c>
-      <c r="G1044" t="n">
-        <v>135684.3822321698</v>
-      </c>
-      <c r="H1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1044" t="n">
-        <v>191</v>
-      </c>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1044" t="inlineStr"/>
-    </row>
-    <row r="1045">
-      <c r="A1045" s="1" t="n">
-        <v>1043</v>
-      </c>
-      <c r="B1045" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="C1045" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="D1045" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="E1045" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="F1045" t="n">
-        <v>2733.0369</v>
-      </c>
-      <c r="G1045" t="n">
-        <v>138417.4191321698</v>
-      </c>
-      <c r="H1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1045" t="n">
-        <v>188.2</v>
-      </c>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1045" t="inlineStr"/>
-    </row>
-    <row r="1046">
-      <c r="A1046" s="1" t="n">
-        <v>1044</v>
-      </c>
-      <c r="B1046" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="C1046" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="D1046" t="n">
-        <v>191</v>
-      </c>
-      <c r="E1046" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="F1046" t="n">
-        <v>6852.6719</v>
-      </c>
-      <c r="G1046" t="n">
-        <v>131564.7472321698</v>
-      </c>
-      <c r="H1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1046" t="n">
-        <v>190.3</v>
-      </c>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35195,7 +34953,9 @@
       <c r="I1047" t="n">
         <v>188.1</v>
       </c>
-      <c r="J1047" t="inlineStr"/>
+      <c r="J1047" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35234,7 +34994,9 @@
       <c r="I1048" t="n">
         <v>190</v>
       </c>
-      <c r="J1048" t="inlineStr"/>
+      <c r="J1048" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35273,7 +35035,9 @@
       <c r="I1049" t="n">
         <v>188.6</v>
       </c>
-      <c r="J1049" t="inlineStr"/>
+      <c r="J1049" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35312,7 +35076,9 @@
       <c r="I1050" t="n">
         <v>189</v>
       </c>
-      <c r="J1050" t="inlineStr"/>
+      <c r="J1050" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35351,7 +35117,9 @@
       <c r="I1051" t="n">
         <v>191.2</v>
       </c>
-      <c r="J1051" t="inlineStr"/>
+      <c r="J1051" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35390,7 +35158,9 @@
       <c r="I1052" t="n">
         <v>190.3</v>
       </c>
-      <c r="J1052" t="inlineStr"/>
+      <c r="J1052" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35429,7 +35199,9 @@
       <c r="I1053" t="n">
         <v>193.4</v>
       </c>
-      <c r="J1053" t="inlineStr"/>
+      <c r="J1053" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35468,7 +35240,9 @@
       <c r="I1054" t="n">
         <v>190.2</v>
       </c>
-      <c r="J1054" t="inlineStr"/>
+      <c r="J1054" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35507,7 +35281,9 @@
       <c r="I1055" t="n">
         <v>190.3</v>
       </c>
-      <c r="J1055" t="inlineStr"/>
+      <c r="J1055" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35546,7 +35322,9 @@
       <c r="I1056" t="n">
         <v>192.9</v>
       </c>
-      <c r="J1056" t="inlineStr"/>
+      <c r="J1056" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35585,7 +35363,9 @@
       <c r="I1057" t="n">
         <v>194.3</v>
       </c>
-      <c r="J1057" t="inlineStr"/>
+      <c r="J1057" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35624,7 +35404,9 @@
       <c r="I1058" t="n">
         <v>194.3</v>
       </c>
-      <c r="J1058" t="inlineStr"/>
+      <c r="J1058" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35663,7 +35445,9 @@
       <c r="I1059" t="n">
         <v>194.1</v>
       </c>
-      <c r="J1059" t="inlineStr"/>
+      <c r="J1059" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35697,10 +35481,14 @@
         <v>152981.0763321698</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35734,10 +35522,14 @@
         <v>147868.3615321698</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>197.8</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35776,7 +35568,9 @@
       <c r="I1062" t="n">
         <v>192.1</v>
       </c>
-      <c r="J1062" t="inlineStr"/>
+      <c r="J1062" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35815,7 +35609,9 @@
       <c r="I1063" t="n">
         <v>194</v>
       </c>
-      <c r="J1063" t="inlineStr"/>
+      <c r="J1063" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35852,7 +35648,9 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="inlineStr"/>
+      <c r="J1064" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35889,7 +35687,9 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
+      <c r="J1065" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35926,7 +35726,9 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="inlineStr"/>
+      <c r="J1066" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35963,7 +35765,9 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="inlineStr"/>
+      <c r="J1067" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36000,7 +35804,9 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="inlineStr"/>
+      <c r="J1068" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36037,7 +35843,9 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="inlineStr"/>
+      <c r="J1069" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36071,12 +35879,12 @@
         <v>133069.0330321698</v>
       </c>
       <c r="H1070" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1070" t="n">
-        <v>195</v>
-      </c>
-      <c r="J1070" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
+      <c r="J1070" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36110,12 +35918,12 @@
         <v>130674.0421321698</v>
       </c>
       <c r="H1071" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1071" t="n">
-        <v>195</v>
-      </c>
-      <c r="J1071" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1071" t="inlineStr"/>
+      <c r="J1071" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36149,12 +35957,12 @@
         <v>130674.0421321698</v>
       </c>
       <c r="H1072" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1072" t="n">
-        <v>194.1</v>
-      </c>
-      <c r="J1072" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1072" t="inlineStr"/>
+      <c r="J1072" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36188,12 +35996,12 @@
         <v>143821.9267321698</v>
       </c>
       <c r="H1073" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1073" t="n">
-        <v>194.1</v>
-      </c>
-      <c r="J1073" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1073" t="inlineStr"/>
+      <c r="J1073" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36227,12 +36035,12 @@
         <v>139090.5336321698</v>
       </c>
       <c r="H1074" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1074" t="n">
-        <v>197.1</v>
-      </c>
-      <c r="J1074" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1074" t="inlineStr"/>
+      <c r="J1074" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36266,12 +36074,12 @@
         <v>146987.2467321698</v>
       </c>
       <c r="H1075" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1075" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="J1075" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1075" t="inlineStr"/>
+      <c r="J1075" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36305,12 +36113,12 @@
         <v>146839.8819321698</v>
       </c>
       <c r="H1076" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1076" t="n">
-        <v>197</v>
-      </c>
-      <c r="J1076" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1076" t="inlineStr"/>
+      <c r="J1076" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36344,12 +36152,12 @@
         <v>146964.8819321698</v>
       </c>
       <c r="H1077" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1077" t="n">
-        <v>194</v>
-      </c>
-      <c r="J1077" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1077" t="inlineStr"/>
+      <c r="J1077" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36383,12 +36191,12 @@
         <v>151612.9844321698</v>
       </c>
       <c r="H1078" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1078" t="n">
-        <v>195</v>
-      </c>
-      <c r="J1078" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1078" t="inlineStr"/>
+      <c r="J1078" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36422,12 +36230,12 @@
         <v>151612.9844321698</v>
       </c>
       <c r="H1079" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1079" t="n">
-        <v>196</v>
-      </c>
-      <c r="J1079" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1079" t="inlineStr"/>
+      <c r="J1079" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36461,12 +36269,12 @@
         <v>141770.8463321698</v>
       </c>
       <c r="H1080" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1080" t="n">
-        <v>196</v>
-      </c>
-      <c r="J1080" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1080" t="inlineStr"/>
+      <c r="J1080" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36500,12 +36308,12 @@
         <v>146685.2400321698</v>
       </c>
       <c r="H1081" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1081" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="J1081" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1081" t="inlineStr"/>
+      <c r="J1081" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36539,12 +36347,12 @@
         <v>146688.7668321698</v>
       </c>
       <c r="H1082" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1082" t="n">
-        <v>194.7</v>
-      </c>
-      <c r="J1082" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1082" t="inlineStr"/>
+      <c r="J1082" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36578,12 +36386,12 @@
         <v>146688.7668321698</v>
       </c>
       <c r="H1083" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1083" t="n">
-        <v>195</v>
-      </c>
-      <c r="J1083" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1083" t="inlineStr"/>
+      <c r="J1083" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36617,12 +36425,12 @@
         <v>146298.2632321698</v>
       </c>
       <c r="H1084" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1084" t="n">
-        <v>195</v>
-      </c>
-      <c r="J1084" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1084" t="inlineStr"/>
+      <c r="J1084" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36656,12 +36464,12 @@
         <v>146298.2632321698</v>
       </c>
       <c r="H1085" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1085" t="n">
-        <v>193</v>
-      </c>
-      <c r="J1085" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1085" t="inlineStr"/>
+      <c r="J1085" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36695,12 +36503,12 @@
         <v>146298.2632321698</v>
       </c>
       <c r="H1086" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1086" t="n">
-        <v>193</v>
-      </c>
-      <c r="J1086" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1086" t="inlineStr"/>
+      <c r="J1086" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36734,12 +36542,12 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1087" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1087" t="n">
-        <v>193</v>
-      </c>
-      <c r="J1087" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1087" t="inlineStr"/>
+      <c r="J1087" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36773,12 +36581,12 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1088" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1088" t="n">
-        <v>194.2</v>
-      </c>
-      <c r="J1088" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1088" t="inlineStr"/>
+      <c r="J1088" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36812,12 +36620,12 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1089" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1089" t="n">
-        <v>194.2</v>
-      </c>
-      <c r="J1089" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1089" t="inlineStr"/>
+      <c r="J1089" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36851,12 +36659,12 @@
         <v>149298.2632321698</v>
       </c>
       <c r="H1090" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1090" t="n">
-        <v>194.2</v>
-      </c>
-      <c r="J1090" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1090" t="inlineStr"/>
+      <c r="J1090" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36890,12 +36698,12 @@
         <v>149945.0986321698</v>
       </c>
       <c r="H1091" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1091" t="n">
-        <v>194.2</v>
-      </c>
-      <c r="J1091" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1091" t="inlineStr"/>
+      <c r="J1091" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36929,12 +36737,12 @@
         <v>150203.6976321698</v>
       </c>
       <c r="H1092" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1092" t="n">
-        <v>195.8</v>
-      </c>
-      <c r="J1092" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1092" t="inlineStr"/>
+      <c r="J1092" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36968,12 +36776,12 @@
         <v>148282.8621321698</v>
       </c>
       <c r="H1093" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1093" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="J1093" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1093" t="inlineStr"/>
+      <c r="J1093" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37007,12 +36815,12 @@
         <v>147754.3478321698</v>
       </c>
       <c r="H1094" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1094" t="n">
-        <v>194.2</v>
-      </c>
-      <c r="J1094" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1094" t="inlineStr"/>
+      <c r="J1094" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37046,12 +36854,12 @@
         <v>147754.3478321698</v>
       </c>
       <c r="H1095" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1095" t="n">
-        <v>194</v>
-      </c>
-      <c r="J1095" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1095" t="inlineStr"/>
+      <c r="J1095" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37085,12 +36893,12 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1096" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1096" t="n">
-        <v>194</v>
-      </c>
-      <c r="J1096" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1096" t="inlineStr"/>
+      <c r="J1096" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37124,12 +36932,12 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1097" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1097" t="n">
-        <v>193</v>
-      </c>
-      <c r="J1097" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1097" t="inlineStr"/>
+      <c r="J1097" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37163,12 +36971,12 @@
         <v>146246.3935321698</v>
       </c>
       <c r="H1098" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1098" t="n">
-        <v>193</v>
-      </c>
-      <c r="J1098" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1098" t="inlineStr"/>
+      <c r="J1098" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37207,7 +37015,9 @@
       <c r="I1099" t="n">
         <v>193</v>
       </c>
-      <c r="J1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37246,7 +37056,9 @@
       <c r="I1100" t="n">
         <v>193</v>
       </c>
-      <c r="J1100" t="inlineStr"/>
+      <c r="J1100" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37285,7 +37097,9 @@
       <c r="I1101" t="n">
         <v>192</v>
       </c>
-      <c r="J1101" t="inlineStr"/>
+      <c r="J1101" t="n">
+        <v>188.2</v>
+      </c>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
